--- a/韓国語/ハングル.xlsx
+++ b/韓国語/ハングル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19425" windowHeight="4635"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135">
   <si>
     <t>ハングル</t>
   </si>
@@ -410,6 +410,15 @@
   </si>
   <si>
     <t>ui</t>
+  </si>
+  <si>
+    <t>平音</t>
+  </si>
+  <si>
+    <t>激音</t>
+  </si>
+  <si>
+    <t>濃音</t>
   </si>
 </sst>
 </file>
@@ -417,12 +426,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +444,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,30 +468,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -489,47 +498,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,11 +522,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,22 +585,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,187 +600,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,15 +791,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -816,6 +809,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -827,6 +835,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,8 +868,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,28 +883,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,156 +896,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1393,10 +1392,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1424,52 +1423,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:21">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -1483,7 +1482,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1495,7 +1494,7 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1507,7 +1506,7 @@
       <c r="I2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1994,6 +1993,17 @@
       </c>
       <c r="H12" s="1" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="10:18">
+      <c r="J13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/韓国語/ハングル.xlsx
+++ b/韓国語/ハングル.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ハングル" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -426,10 +426,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -448,13 +448,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -468,6 +461,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -476,15 +485,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -500,30 +501,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -547,14 +524,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -568,11 +553,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -582,14 +590,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -600,181 +600,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,36 +791,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -841,11 +811,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,24 +886,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -899,10 +899,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,133 +911,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
